--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1830674.210986676</v>
+        <v>1823663.481870681</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>164.7870869362937</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>4.021451864647738</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>3.625832343219376</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -753,10 +753,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>209.0931029937981</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>256.4561542453789</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>177.644442847398</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>10.84365588372966</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>283.0103879733698</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,10 +981,10 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>25.33321600822629</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>42.63833102173253</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>159.3149947016329</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>195.8794355947109</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>201.4757100999377</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>112.4146879222726</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1190,13 +1190,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>132.0937863312742</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>185.7824000584122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>64.86047123489848</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>240.4163358170463</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
@@ -1430,7 +1430,7 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>16.05788523921103</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>25.94974245574991</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>148.6995003621359</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>135.9559831020676</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>55.9792893165548</v>
+        <v>13.66235411285807</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1822,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -2132,7 +2132,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059334</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211824</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -2804,13 +2804,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825604</v>
+        <v>315.0398534825603</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548577</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414328</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340434</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418609</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>159.2039277954308</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
@@ -2855,7 +2855,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>291.5668045419572</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007172</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035413</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219386</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507297</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484252</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723237</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380441</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497634</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943226</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391316</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738177</v>
+        <v>186.5058235738176</v>
       </c>
       <c r="X31" t="n">
         <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972065</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596574976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.06849973564988</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.5760187316782</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.72314698196061</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380034</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.22330424667945</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.97275566644672</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883885</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541089</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.98356133658282</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.882059701038742</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656606</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927754</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1001.417927070728</v>
+        <v>456.6551341546188</v>
       </c>
       <c r="C2" t="n">
-        <v>608.2424255736587</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="D2" t="n">
-        <v>222.8012967903264</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="E2" t="n">
-        <v>222.8012967903264</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="F2" t="n">
-        <v>209.9472623607083</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>681.465724022112</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1219.724509032205</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N2" t="n">
-        <v>1747.535792669667</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023273</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964324</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964324</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="U2" t="n">
-        <v>1714.523771398922</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="V2" t="n">
-        <v>1372.416962102441</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="W2" t="n">
-        <v>1001.417927070728</v>
+        <v>1643.093194012358</v>
       </c>
       <c r="X2" t="n">
-        <v>1001.417927070728</v>
+        <v>1253.640588945414</v>
       </c>
       <c r="Y2" t="n">
-        <v>1001.417927070728</v>
+        <v>857.1498798660157</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.192785981317</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>552.5303290689742</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>422.4413616904545</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>285.9948708013422</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>161.563064684474</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585115</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="N3" t="n">
-        <v>1658.26268714677</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737751</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737751</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737751</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2039.85229263762</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1862.868480836528</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1652.80533751517</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1441.60018297598</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1211.482937109267</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>1022.175859459279</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y3" t="n">
-        <v>842.8616425347859</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.3917895939628</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C4" t="n">
-        <v>542.3917895939628</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D4" t="n">
-        <v>386.7586764964776</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E4" t="n">
-        <v>231.1998643556801</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>683.9036488480133</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>683.9036488480133</v>
       </c>
       <c r="X4" t="n">
-        <v>765.5038507773195</v>
+        <v>449.8233266309963</v>
       </c>
       <c r="Y4" t="n">
-        <v>542.3917895939628</v>
+        <v>226.7112654476397</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>606.3926870869566</v>
+        <v>929.940204038998</v>
       </c>
       <c r="C5" t="n">
-        <v>606.3926870869566</v>
+        <v>929.940204038998</v>
       </c>
       <c r="D5" t="n">
-        <v>606.3926870869566</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E5" t="n">
-        <v>203.8091622035011</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>190.955127773883</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>135.6402479253969</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253969</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354903</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572952</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465281</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737751</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737751</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737751</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737751</v>
+        <v>1557.916092096459</v>
       </c>
       <c r="V5" t="n">
-        <v>2163.829781976408</v>
+        <v>1215.809282799978</v>
       </c>
       <c r="W5" t="n">
-        <v>1792.830746944695</v>
+        <v>929.940204038998</v>
       </c>
       <c r="X5" t="n">
-        <v>1403.378141877752</v>
+        <v>929.940204038998</v>
       </c>
       <c r="Y5" t="n">
-        <v>1006.887432798354</v>
+        <v>929.940204038998</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.192785981317</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628895</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1402.159093172767</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.41787818286</v>
+        <v>1985.128818155982</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734593</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784302</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>782.0260322255344</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>782.0260322255344</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688844</v>
+        <v>782.0260322255344</v>
       </c>
       <c r="V7" t="n">
-        <v>555.0623473897086</v>
+        <v>782.0260322255344</v>
       </c>
       <c r="W7" t="n">
-        <v>271.7319453208863</v>
+        <v>498.695630156712</v>
       </c>
       <c r="X7" t="n">
-        <v>73.87392956865307</v>
+        <v>264.6153079396951</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1051.416804565922</v>
+        <v>182.839545823232</v>
       </c>
       <c r="C8" t="n">
-        <v>658.2413030688522</v>
+        <v>182.839545823232</v>
       </c>
       <c r="D8" t="n">
-        <v>272.8001742855199</v>
+        <v>182.839545823232</v>
       </c>
       <c r="E8" t="n">
-        <v>69.28935600275456</v>
+        <v>182.839545823232</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>169.9855113936138</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>160.863159922021</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>160.863159922021</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1590.266290800943</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>2030.305891693271</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.402259356717</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1848.402259356717</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1848.402259356717</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>1848.402259356717</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y8" t="n">
-        <v>1451.911550277319</v>
+        <v>182.839545823232</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>632.8109751081457</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1218.308980114748</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O9" t="n">
-        <v>1734.829262705729</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2140.450631422126</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.0769001763519</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>202.8717822423411</v>
+        <v>815.331925641809</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>659.6988125443237</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.2849188676532</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1710.135872896808</v>
+        <v>1463.714265689663</v>
       </c>
       <c r="C11" t="n">
-        <v>1388.756646545932</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D11" t="n">
-        <v>1388.756646545932</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>1057.969396808671</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>712.8712334848422</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>371.5047531190392</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2921.999930786569</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V11" t="n">
-        <v>2651.689396636282</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2352.486636750763</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2034.830306830013</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1710.135872896808</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>472.8495292029534</v>
+        <v>655.0952099420615</v>
       </c>
       <c r="C13" t="n">
-        <v>472.8495292029534</v>
+        <v>556.6863671542446</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029534</v>
+        <v>472.8495292029532</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083498</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675166</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245447</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628188</v>
+        <v>919.8227395243316</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401903</v>
+        <v>919.8227395243316</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693674</v>
+        <v>919.8227395243316</v>
       </c>
       <c r="Y13" t="n">
-        <v>472.8495292029534</v>
+        <v>768.5069534871689</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1621.583713082509</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1300.204486731634</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>986.5596330944958</v>
+        <v>1079.371021131008</v>
       </c>
       <c r="E14" t="n">
-        <v>655.772383357234</v>
+        <v>748.5837713937467</v>
       </c>
       <c r="F14" t="n">
-        <v>655.772383357234</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914312</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2955.754869688467</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2685.444335538179</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2685.444335538179</v>
       </c>
       <c r="X14" t="n">
-        <v>2087.611459508387</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>1950.282183647712</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>531.3453299197982</v>
+        <v>511.1396386607285</v>
       </c>
       <c r="C16" t="n">
-        <v>432.9364871319813</v>
+        <v>412.7307958729115</v>
       </c>
       <c r="D16" t="n">
-        <v>432.9364871319813</v>
+        <v>328.8939579216202</v>
       </c>
       <c r="E16" t="n">
-        <v>349.1739501373777</v>
+        <v>245.1314209270166</v>
       </c>
       <c r="F16" t="n">
-        <v>263.6442904965445</v>
+        <v>159.6017612861835</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="V16" t="n">
-        <v>1007.606986424697</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="W16" t="n">
-        <v>796.0728595020684</v>
+        <v>938.1512153138216</v>
       </c>
       <c r="X16" t="n">
-        <v>796.0728595020684</v>
+        <v>775.8671682429986</v>
       </c>
       <c r="Y16" t="n">
-        <v>644.7570734649056</v>
+        <v>624.5513822058358</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803434</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5540,22 +5540,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443166</v>
@@ -5610,7 +5610,7 @@
         <v>2262.088962721623</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5677,22 +5677,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5729,19 +5729,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5841,13 +5841,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6078,13 +6078,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6145,22 +6145,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
         <v>1087.158956162812</v>
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958346</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343937</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118091</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755553</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6315,13 +6315,13 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>2157.335302368295</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904113</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388004</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958355</v>
+        <v>670.0483496134136</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118092</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6552,13 +6552,13 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985367</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517144</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414174</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878086</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225746</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904119</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648018</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117756</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573178</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102268</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.29817721028</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286462</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988177</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026495</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463675</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057096</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766598</v>
+        <v>255.2650543744551</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311917</v>
+        <v>614.2474104019169</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1219.219822695429</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394301</v>
+        <v>1765.220722740009</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2404.684126952454</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651162</v>
+        <v>2844.723727844783</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782684</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>2153.517991661507</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.671367692971</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404856</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374187</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803361</v>
+        <v>337.0682132920787</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805547</v>
+        <v>612.8479737408614</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458888</v>
+        <v>799.1395520791255</v>
       </c>
       <c r="N34" t="n">
-        <v>884.291208377098</v>
+        <v>982.3291861103346</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145876</v>
+        <v>1145.033953152043</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649525</v>
+        <v>1264.910118928621</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250175</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273671</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400699</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045784</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.960275502747</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924224</v>
@@ -6938,16 +6938,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
         <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7026,13 +7026,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,16 +7093,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
         <v>804.5780233445255</v>
@@ -7151,19 +7151,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7263,10 +7263,10 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1629.56928853388</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>270.9691711012525</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750523</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,7 +7430,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
         <v>3105.956385205777</v>
@@ -7442,16 +7442,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7500,13 +7500,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1606.310991511064</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.831274102045</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862335</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,19 +7676,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960409</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M46" t="n">
-        <v>499.953029634305</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655142</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>233.0219164930852</v>
       </c>
       <c r="O2" t="n">
-        <v>581.1266425433728</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837496</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>247.0771922093734</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>493.19651472858</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,19 +8216,19 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>236.1337451293807</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>285.200019047314</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>539.097444875317</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886044</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>183.6305080413536</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,13 +8462,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>369.9375821741921</v>
       </c>
       <c r="P8" t="n">
-        <v>302.3186727388648</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>673.3036524843452</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>318.4607528074838</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8781,7 +8781,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9018,10 +9018,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9258,10 +9258,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>206.6446779083334</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9489,7 +9489,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>92.68755888888889</v>
@@ -9498,7 +9498,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9726,16 +9726,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P24" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9963,16 +9963,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>630.6030013529513</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10200,16 +10200,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>220.884447093964</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10437,16 +10437,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>212.248871977908</v>
       </c>
       <c r="P33" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10674,16 +10674,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>108.8653421701425</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P36" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10911,13 +10911,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>108.8653421701425</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11148,16 +11148,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P42" t="n">
-        <v>110.5765941352903</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>253.3049628524683</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.34757171739599</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>176.183354093441</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>123.8528857210412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>33.41738951287954</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>185.4915064918054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>39.51391165026216</v>
+        <v>81.83084685395887</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.63424829224823e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>468863.6630427275</v>
+      </c>
+      <c r="C2" t="n">
         <v>468863.6630427276</v>
       </c>
-      <c r="C2" t="n">
-        <v>468863.6630427275</v>
-      </c>
       <c r="D2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427274</v>
       </c>
       <c r="E2" t="n">
         <v>414333.4609034411</v>
       </c>
       <c r="F2" t="n">
-        <v>414333.460903441</v>
+        <v>414333.4609034411</v>
       </c>
       <c r="G2" t="n">
         <v>468863.6630427276</v>
       </c>
       <c r="H2" t="n">
-        <v>468863.6630427275</v>
+        <v>468863.6630427276</v>
       </c>
       <c r="I2" t="n">
         <v>468863.6630427275</v>
       </c>
       <c r="J2" t="n">
-        <v>468863.6630427281</v>
+        <v>468863.6630427279</v>
       </c>
       <c r="K2" t="n">
-        <v>468863.663042728</v>
+        <v>468863.6630427277</v>
       </c>
       <c r="L2" t="n">
-        <v>468863.6630427271</v>
+        <v>468863.6630427278</v>
       </c>
       <c r="M2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427275</v>
       </c>
       <c r="N2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427275</v>
       </c>
       <c r="O2" t="n">
         <v>468863.6630427275</v>
       </c>
       <c r="P2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427275</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062173</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972854</v>
+        <v>62456.24177539675</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.5244708112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277128</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243102</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243102</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704044</v>
+        <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373745</v>
+        <v>74084.49552373751</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.4955237375</v>
+        <v>74084.49552373751</v>
       </c>
       <c r="G4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="I4" t="n">
         <v>121843.4120153197</v>
@@ -26442,10 +26442,10 @@
         <v>122593.9044797028</v>
       </c>
       <c r="K4" t="n">
-        <v>122593.9044797028</v>
+        <v>122593.9044797029</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551967</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52768.31038654747</v>
+        <v>55916.66097332159</v>
       </c>
       <c r="C6" t="n">
-        <v>234973.2586784035</v>
+        <v>229775.3180073767</v>
       </c>
       <c r="D6" t="n">
-        <v>230109.9763845284</v>
+        <v>222373.6871611364</v>
       </c>
       <c r="E6" t="n">
-        <v>174940.3842058186</v>
+        <v>174730.6526591289</v>
       </c>
       <c r="F6" t="n">
-        <v>287062.945679863</v>
+        <v>286853.2141331735</v>
       </c>
       <c r="G6" t="n">
         <v>241425.1561752064</v>
       </c>
       <c r="H6" t="n">
-        <v>288850.4817118882</v>
+        <v>288850.4817118883</v>
       </c>
       <c r="I6" t="n">
         <v>288850.4817118882</v>
       </c>
       <c r="J6" t="n">
-        <v>75808.56411460321</v>
+        <v>82324.84926917625</v>
       </c>
       <c r="K6" t="n">
-        <v>282610.7133091057</v>
+        <v>282610.7133091053</v>
       </c>
       <c r="L6" t="n">
-        <v>227428.1243744837</v>
+        <v>223379.2871640122</v>
       </c>
       <c r="M6" t="n">
-        <v>246649.6522522653</v>
+        <v>245597.957241077</v>
       </c>
       <c r="N6" t="n">
-        <v>288850.4817118883</v>
+        <v>288850.4817118882</v>
       </c>
       <c r="O6" t="n">
-        <v>261082.7876691169</v>
+        <v>261082.7876691168</v>
       </c>
       <c r="P6" t="n">
-        <v>288850.4817118883</v>
+        <v>288850.4817118882</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
+        <v>917.0607368443783</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.060736844378</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443782</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014442</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660675</v>
+        <v>78.07030221924593</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155136</v>
+        <v>17.58004954287432</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407231</v>
+        <v>117.1268713042798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>244.2440410205832</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>363.2675928167477</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.5218557922893</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>11.22149861884549</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>6.863397482005155</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>54.09507614744871</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27622,16 +27622,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.8420853197871</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>84.27865670802561</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27701,10 +27701,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>109.7488099719949</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>185.1777423863135</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>41.47292827764318</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27831,16 +27831,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>35.86008340013586</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>197.0819795346832</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>24.53905781618718</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>36.40928042339644</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28059,7 +28059,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>35.09854051311083</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28749,16 +28749,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,7 +28983,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28998,13 +28998,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29232,10 +29232,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>28.01250026485243</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901118</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>86.65052755599578</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>30.27223765901141</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431654</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000708</v>
+        <v>43.49509683159789</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.65992738833464</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.868342022471</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861254424</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30010,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30165,19 +30165,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>28.01250026485255</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30405,10 +30405,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>128.2979821082779</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30481,7 +30481,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30654,13 +30654,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>28.01250026485148</v>
       </c>
       <c r="R43" t="n">
         <v>130.3599693155844</v>
@@ -30876,31 +30876,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>28.01250026485309</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -32014,7 +32014,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -32491,7 +32491,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>83.90342515530108</v>
       </c>
       <c r="O2" t="n">
-        <v>431.5628051192764</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344378</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>161.7050793552068</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>400.5089558396911</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>93.07534195014333</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>136.0815277095298</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>446.7103228260052</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>90.94294915246475</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,13 +35182,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>220.3737447500957</v>
       </c>
       <c r="P8" t="n">
-        <v>152.0172254979396</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>587.9315396301786</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>227.4725996515698</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35501,7 +35501,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35738,10 +35738,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>119.5613130890187</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,16 +36045,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>313.3380164832366</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36528,10 +36528,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028106</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907908</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>273.3632145670549</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>545.2308884987847</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851011</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>645.5073351254081</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192277</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>538.4757198201029</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751655991</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853757</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698326</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>135.5123342397974</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215747</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611265</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271085</v>
       </c>
       <c r="N31" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446902</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261598</v>
+        <v>189.6059785576869</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318504</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.083244740921</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>235.3726143993938</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791171</v>
+        <v>82.705432300551</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>189.529999709281</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345642</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317805</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37394,16 +37394,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>23.49322931597588</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>294.0834769302979</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>213.0525346398113</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37631,13 +37631,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>23.49322931597588</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>210.9596397950879</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
@@ -37868,16 +37868,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P42" t="n">
-        <v>23.49322931597565</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500396</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>216.185811717645</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
